--- a/TimesheetTemplateDummy.xlsx
+++ b/TimesheetTemplateDummy.xlsx
@@ -2226,7 +2226,10 @@
       <c r="G15" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="38">
+        <f>B33+1</f>
+        <v>7</v>
+      </c>
       <c r="I15" s="41"/>
       <c r="J15" s="42"/>
       <c r="K15" s="28"/>
@@ -2306,7 +2309,10 @@
       <c r="A18" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="38">
+        <f>B15+1</f>
+        <v>1</v>
+      </c>
       <c r="C18" s="39"/>
       <c r="D18" s="22"/>
       <c r="E18" s="40"/>
@@ -2314,7 +2320,10 @@
       <c r="G18" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="38">
+        <f>H15+1</f>
+        <v>8</v>
+      </c>
       <c r="I18" s="41"/>
       <c r="J18" s="42"/>
       <c r="K18" s="28"/>
@@ -2394,7 +2403,10 @@
       <c r="A21" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="38">
+        <f>B18+1</f>
+        <v>2</v>
+      </c>
       <c r="C21" s="39"/>
       <c r="D21" s="22"/>
       <c r="E21" s="40"/>
@@ -2402,7 +2414,10 @@
       <c r="G21" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="38"/>
+      <c r="H21" s="38">
+        <f>H18+1</f>
+        <v>9</v>
+      </c>
       <c r="I21" s="52"/>
       <c r="J21" s="42"/>
       <c r="K21" s="28"/>
@@ -2482,7 +2497,10 @@
       <c r="A24" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="38">
+        <f>B21+1</f>
+        <v>3</v>
+      </c>
       <c r="C24" s="39"/>
       <c r="D24" s="22"/>
       <c r="E24" s="40"/>
@@ -2490,7 +2508,10 @@
       <c r="G24" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="38"/>
+      <c r="H24" s="38">
+        <f>H21+1</f>
+        <v>10</v>
+      </c>
       <c r="I24" s="41"/>
       <c r="J24" s="42"/>
       <c r="K24" s="28"/>
@@ -2570,7 +2591,10 @@
       <c r="A27" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="38"/>
+      <c r="B27" s="38">
+        <f>B24+1</f>
+        <v>4</v>
+      </c>
       <c r="C27" s="39"/>
       <c r="D27" s="22"/>
       <c r="E27" s="40"/>
@@ -2578,7 +2602,10 @@
       <c r="G27" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="38"/>
+      <c r="H27" s="38">
+        <f>H24+1</f>
+        <v>11</v>
+      </c>
       <c r="I27" s="54"/>
       <c r="J27" s="42"/>
       <c r="K27" s="28"/>
@@ -2658,7 +2685,10 @@
       <c r="A30" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="56"/>
+      <c r="B30" s="56">
+        <f>B27+1</f>
+        <v>5</v>
+      </c>
       <c r="C30" s="57"/>
       <c r="D30" s="58"/>
       <c r="E30" s="40"/>
@@ -2666,7 +2696,10 @@
       <c r="G30" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="56"/>
+      <c r="H30" s="56">
+        <f>H27+1</f>
+        <v>12</v>
+      </c>
       <c r="I30" s="59"/>
       <c r="J30" s="42"/>
       <c r="K30" s="28"/>
@@ -2746,7 +2779,10 @@
       <c r="A33" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="56"/>
+      <c r="B33" s="56">
+        <f>B30+1</f>
+        <v>6</v>
+      </c>
       <c r="C33" s="57"/>
       <c r="D33" s="58"/>
       <c r="E33" s="66"/>
